--- a/conditions_probe_money.xlsx
+++ b/conditions_probe_money.xlsx
@@ -2,14 +2,14 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr/>
+  <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\omadav\Dropbox\Projects\Caltech\Humans\Mapping Prefrontal Cortex\two_choice.git\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Dropbox\Projects\Caltech\Humans\Mapping Prefrontal Cortex\two_choice.git\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12228"/>
+    <workbookView xWindow="816" yWindow="-120" windowWidth="28116" windowHeight="16440"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -17,10 +17,16 @@
   <externalReferences>
     <externalReference r:id="rId2"/>
   </externalReferences>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="162913" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
@@ -104,31 +110,33 @@
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
       <sheetName val="conditions"/>
+      <sheetName val="Sheet1"/>
     </sheetNames>
     <sheetDataSet>
-      <sheetData sheetId="0">
+      <sheetData sheetId="0"/>
+      <sheetData sheetId="1">
         <row r="2">
-          <cell r="N2">
-            <v>4</v>
+          <cell r="B2">
+            <v>3</v>
           </cell>
-          <cell r="T2" t="str">
-            <v>Fuchsia</v>
+          <cell r="H2" t="str">
+            <v>gold</v>
           </cell>
         </row>
         <row r="3">
-          <cell r="N3">
-            <v>90</v>
+          <cell r="B3">
+            <v>4</v>
           </cell>
-          <cell r="T3" t="str">
+          <cell r="H3" t="str">
             <v>DeepSkyBlue</v>
           </cell>
         </row>
         <row r="4">
-          <cell r="N4">
-            <v>3</v>
+          <cell r="B4">
+            <v>90</v>
           </cell>
-          <cell r="T4" t="str">
-            <v>gold</v>
+          <cell r="H4" t="str">
+            <v>Fuchsia</v>
           </cell>
         </row>
       </sheetData>
@@ -434,13 +442,14 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr codeName="Hoja1"/>
   <dimension ref="A1:F2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F3" sqref="F3"/>
+      <selection activeCell="G6" sqref="G6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
@@ -464,28 +473,28 @@
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2" t="str">
-        <f ca="1">[1]conditions!$T$2</f>
+        <f>[1]Sheet1!$H$2</f>
+        <v>gold</v>
+      </c>
+      <c r="B2" t="str">
+        <f>[1]Sheet1!$H$3</f>
+        <v>DeepSkyBlue</v>
+      </c>
+      <c r="C2" t="str">
+        <f>[1]Sheet1!$H$4</f>
         <v>Fuchsia</v>
       </c>
-      <c r="B2" t="str">
-        <f ca="1">[1]conditions!$T$3</f>
-        <v>DeepSkyBlue</v>
-      </c>
-      <c r="C2" t="str">
-        <f ca="1">[1]conditions!$T$4</f>
-        <v>gold</v>
-      </c>
       <c r="D2">
-        <f ca="1">[1]conditions!$N$2</f>
+        <f>[1]Sheet1!$B$2</f>
+        <v>3</v>
+      </c>
+      <c r="E2">
+        <f>[1]Sheet1!$B$3</f>
         <v>4</v>
       </c>
-      <c r="E2">
-        <f ca="1">[1]conditions!$N$3</f>
+      <c r="F2">
+        <f>[1]Sheet1!$B$4</f>
         <v>90</v>
-      </c>
-      <c r="F2">
-        <f ca="1">[1]conditions!$N$4</f>
-        <v>3</v>
       </c>
     </row>
   </sheetData>
